--- a/biology/Botanique/Liste_des_villes_et_villages_fleuris_de_la_Vienne/Liste_des_villes_et_villages_fleuris_de_la_Vienne.xlsx
+++ b/biology/Botanique/Liste_des_villes_et_villages_fleuris_de_la_Vienne/Liste_des_villes_et_villages_fleuris_de_la_Vienne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La liste des villes et villages fleuris de la Vienne dresse le nom des communes récompensées par le concours des villes et villages fleuris dans le département de la Vienne, en Nouvelle-Aquitaine.
-En 2023, 38 communes du département figurent au palmarès du concours[1], soit deux communes de plus par rapport au palmarès de 2022.
+En 2023, 38 communes du département figurent au palmarès du concours, soit deux communes de plus par rapport au palmarès de 2022.
 </t>
         </is>
       </c>
@@ -512,20 +524,171 @@
           <t>Communes labellisées</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'indication de hausse, de baisse ou de stagnation, pour la catégorie 4 fleurs, correspond au précédent résultat (année 2023 par rapport à 2022). Les autres catégories (3, 2 et 1 fleur) n'ont pas d'indications car leurs différents résultats ne reflètent pas obligatoirement une signification positive ou négative.
-Répartition selon le nombre de fleurs
-Les 38 communes sont réparties comme suit :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_la_Vienne</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_la_Vienne</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Communes labellisées</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Répartition selon le nombre de fleurs</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Les 38 communes sont réparties comme suit :
 4 fleurs : 1 commune. 
 3 fleurs : 7 communes.
 2 fleurs : 12 communes.
-1 fleur : 18 communes.
-Liste des communes
-La liste suivante répertorie les communes de la Vienne labellisées « Ville ou village fleuri »[a] (la ou les communes promues en 2023 sont identifiées en caractères gras) :
-4 fleurs
+1 fleur : 18 communes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_la_Vienne</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_la_Vienne</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Communes labellisées</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des communes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La liste suivante répertorie les communes de la Vienne labellisées « Ville ou village fleuri »[a] (la ou les communes promues en 2023 sont identifiées en caractères gras) :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_la_Vienne</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_la_Vienne</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Communes labellisées</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des communes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4 fleurs</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Saint-Benoît
-3 fleurs
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_la_Vienne</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_la_Vienne</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Communes labellisées</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Liste des communes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3 fleurs</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Angles-sur-l'Anglin
 Chasseneuil-du-Poitou
 Châtellerault
@@ -533,7 +696,47 @@
 Loudun
 Montmorillon
 Vouillé
-2 fleurs
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_la_Vienne</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_la_Vienne</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Communes labellisées</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Liste des communes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2 fleurs</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Antran
 Bonnes
 Charroux
@@ -546,7 +749,47 @@
 Scorbé-Clairvaux
 Sèvres-Anxaumont
 Vivonne
-1 fleur
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_la_Vienne</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_la_Vienne</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Communes labellisées</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Liste des communes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1 fleur</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Celle-Lévescault
 Civray
 Dissay
@@ -569,36 +812,75 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Liste_des_villes_et_villages_fleuris_de_la_Vienne</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_la_Vienne</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_la_Vienne</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_la_Vienne</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Fleurs d'Or
-Saint-Benoît (2013)[2]
-Prix nationaux
-Prix de la mise en valeur du patrimoine : Saint-Benoît (2019)[2].</t>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Fleurs d'Or</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Saint-Benoît (2013)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_la_Vienne</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_la_Vienne</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Prix nationaux</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Prix de la mise en valeur du patrimoine : Saint-Benoît (2019).</t>
         </is>
       </c>
     </row>
